--- a/public/template_upload_stok.xlsx
+++ b/public/template_upload_stok.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sap\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5739C3F7-989D-4CE6-B568-B9F06F5F22F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD73179-8AF5-473B-AAD7-4C2C2C2090B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{1D753D7F-E1F4-4735-BAC2-85F81BCD1484}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Beginning Balance</t>
   </si>
   <si>
-    <t>Incoming Balance</t>
-  </si>
-  <si>
-    <t>Usage Balance</t>
-  </si>
-  <si>
-    <t>Ending Balance</t>
-  </si>
-  <si>
     <t>fg</t>
   </si>
   <si>
@@ -58,13 +49,25 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>rm1</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>rm2</t>
+  </si>
+  <si>
+    <t>rm3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,30 +75,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -103,52 +92,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,108 +412,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DC47A0-E208-40CB-9BA3-61900DF3BEAC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.36328125" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_upload_stok.xlsx
+++ b/public/template_upload_stok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sap\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD73179-8AF5-473B-AAD7-4C2C2C2090B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A0D13C-2456-477A-8155-DCAB6ECB4F3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{1D753D7F-E1F4-4735-BAC2-85F81BCD1484}"/>
   </bookViews>
@@ -25,23 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="112">
   <si>
     <t>Beginning Balance</t>
   </si>
   <si>
-    <t>fg</t>
-  </si>
-  <si>
-    <t>adc12</t>
-  </si>
-  <si>
-    <t>ac2c</t>
-  </si>
-  <si>
-    <t>adt4</t>
-  </si>
-  <si>
     <t>part_no</t>
   </si>
   <si>
@@ -51,26 +39,349 @@
     <t>category</t>
   </si>
   <si>
-    <t>rm1</t>
-  </si>
-  <si>
-    <t>rm</t>
-  </si>
-  <si>
-    <t>rm2</t>
-  </si>
-  <si>
-    <t>rm3</t>
+    <t>ADC12</t>
+  </si>
+  <si>
+    <t>ADT4</t>
+  </si>
+  <si>
+    <t>AC2C</t>
+  </si>
+  <si>
+    <t>AC2B</t>
+  </si>
+  <si>
+    <t>AC4B</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>M02</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>M06</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>M08</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>M29</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>M31</t>
+  </si>
+  <si>
+    <t>GRAM MACHINING TACI</t>
+  </si>
+  <si>
+    <t>GRAM PISTON TACI</t>
+  </si>
+  <si>
+    <t>GRAM SWASH TACI</t>
+  </si>
+  <si>
+    <t>HOMEL DROSS TACI</t>
+  </si>
+  <si>
+    <t>PART NG PISTON TACI</t>
+  </si>
+  <si>
+    <t>DROSS ENKEI</t>
+  </si>
+  <si>
+    <t>AL TUBE DENSO</t>
+  </si>
+  <si>
+    <t>AL. PLATE DENSO</t>
+  </si>
+  <si>
+    <t>AL.RDTR POTRAD DENSO</t>
+  </si>
+  <si>
+    <t>KIRIKO AISIN</t>
+  </si>
+  <si>
+    <t>DROSS AISIN</t>
+  </si>
+  <si>
+    <t>ADVICS KIRIKO</t>
+  </si>
+  <si>
+    <t>TEBAL BERSIH</t>
+  </si>
+  <si>
+    <t>TEBAL KOTOR</t>
+  </si>
+  <si>
+    <t>TEBAL BARU</t>
+  </si>
+  <si>
+    <t>TEBAL BIASA</t>
+  </si>
+  <si>
+    <t>PLAT BIASA</t>
+  </si>
+  <si>
+    <t>PLAT BARU</t>
+  </si>
+  <si>
+    <t>ALKOTEK</t>
+  </si>
+  <si>
+    <t>PLAT PANEL</t>
+  </si>
+  <si>
+    <t>PANCI</t>
+  </si>
+  <si>
+    <t>SIKU A</t>
+  </si>
+  <si>
+    <t>SIKU CAMPUR</t>
+  </si>
+  <si>
+    <t>KALENG PRESS</t>
+  </si>
+  <si>
+    <t>KRIPIK NKI</t>
+  </si>
+  <si>
+    <t>GRAM NKI</t>
+  </si>
+  <si>
+    <t>DROSS NKI</t>
+  </si>
+  <si>
+    <t>VELG MOTOR</t>
+  </si>
+  <si>
+    <t>VELG MOBIL</t>
+  </si>
+  <si>
+    <t>KAWAT</t>
+  </si>
+  <si>
+    <t>OFSET</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>BM1</t>
+  </si>
+  <si>
+    <t>BM  AC  L J A</t>
+  </si>
+  <si>
+    <t>BM2</t>
+  </si>
+  <si>
+    <t>BM PLAT MN L J A</t>
+  </si>
+  <si>
+    <t>BM3</t>
+  </si>
+  <si>
+    <t>BM DC L J A</t>
+  </si>
+  <si>
+    <t>BM4</t>
+  </si>
+  <si>
+    <t>BM AC LEMBEK AIN</t>
+  </si>
+  <si>
+    <t>BM5</t>
+  </si>
+  <si>
+    <t>BM DC AIN</t>
+  </si>
+  <si>
+    <t>BM6</t>
+  </si>
+  <si>
+    <t>BM ADC IRFAN</t>
+  </si>
+  <si>
+    <t>BM7</t>
+  </si>
+  <si>
+    <t>BM LBK HASAN</t>
+  </si>
+  <si>
+    <t>BM8</t>
+  </si>
+  <si>
+    <t>BM ADC HASAN</t>
+  </si>
+  <si>
+    <t>BM9</t>
+  </si>
+  <si>
+    <t>BM AC2C</t>
+  </si>
+  <si>
+    <t>BM10</t>
+  </si>
+  <si>
+    <t>BM PRESS AC2C</t>
+  </si>
+  <si>
+    <t>BM11</t>
+  </si>
+  <si>
+    <t>BM PRESS ADC</t>
+  </si>
+  <si>
+    <t>BM12</t>
+  </si>
+  <si>
+    <t>BM ADC NG</t>
+  </si>
+  <si>
+    <t>BM13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGOT AC2C NG </t>
+  </si>
+  <si>
+    <t>AD01</t>
+  </si>
+  <si>
+    <t>AD02</t>
+  </si>
+  <si>
+    <t>AD03</t>
+  </si>
+  <si>
+    <t>AD04</t>
+  </si>
+  <si>
+    <t>SILICON</t>
+  </si>
+  <si>
+    <t>TEMBAGA</t>
+  </si>
+  <si>
+    <t>MAGNESIUM</t>
+  </si>
+  <si>
+    <t>AL TAB MN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,14 +404,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Production Matrial 2" xfId="1" xr:uid="{9DE47830-46BE-4FEA-BB9B-99DE36F14A75}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DC47A0-E208-40CB-9BA3-61900DF3BEAC}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,103 +743,762 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>500</v>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>